--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/129.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/129.xlsx
@@ -479,13 +479,13 @@
         <v>-13.23065265695513</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.46191403830005</v>
+        <v>-21.45839884236274</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04669992829670708</v>
+        <v>-0.0550796860665993</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.87347915205843</v>
+        <v>-8.875693872169142</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.51999524395687</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.61422126922505</v>
+        <v>-21.6086429123899</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.174659905024472</v>
+        <v>-0.1834063383093829</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.378369426645953</v>
+        <v>-8.381586393164383</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.69585380527175</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.84868826054856</v>
+        <v>-21.83623107105166</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3178686941701447</v>
+        <v>-0.3291916340739197</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.277690108235573</v>
+        <v>-8.290328190986548</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.72525516251664</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.95569395384473</v>
+        <v>-21.94835066553062</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3398496690437943</v>
+        <v>-0.3538273396763041</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.812261543512137</v>
+        <v>-7.816260751129273</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.63022979904129</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.93769263056074</v>
+        <v>-21.92591501301835</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4714323998599432</v>
+        <v>-0.4808241820512868</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.098486096970023</v>
+        <v>-7.108127218511578</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.40062791295495</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.19413570775103</v>
+        <v>-22.18823956546953</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.577553182913199</v>
+        <v>-0.5968452040100455</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.524682917027683</v>
+        <v>-6.536225862240468</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.06191746357674</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.58117393637036</v>
+        <v>-22.57533646217126</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7516213834028389</v>
+        <v>-0.7706493981288719</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.114500129900385</v>
+        <v>-6.121222514342393</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.62945425715674</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.84571809793912</v>
+        <v>-22.8492235158627</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8676375163547306</v>
+        <v>-0.8862988555657449</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.825691827251118</v>
+        <v>-5.828141219691443</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.10846450894875</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.32590168538691</v>
+        <v>-23.32737816546072</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9586317121617516</v>
+        <v>-0.9807251341933403</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.527237514053429</v>
+        <v>-5.524749009558169</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.5348606084042</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.76612253070453</v>
+        <v>-23.76321357161872</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.203057610473165</v>
+        <v>-1.226969743059245</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.17860732338059</v>
+        <v>-5.165627010148931</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.93438393045565</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.24447762958409</v>
+        <v>-24.24063975919356</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.136992460680543</v>
+        <v>-1.157760961851197</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.001595940757068</v>
+        <v>-4.992463275929671</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.32357160779486</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.85653728826004</v>
+        <v>-24.84824064360689</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.056255401280309</v>
+        <v>-1.074848294395187</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.897895216102935</v>
+        <v>-4.889686573573385</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.745993918733774</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.45649665494037</v>
+        <v>-25.45442860503567</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9688839595616723</v>
+        <v>-0.9913636131357472</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.769695678038691</v>
+        <v>-4.759893219270527</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.216937592808485</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.09442404894917</v>
+        <v>-26.08823945526252</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9267651654032</v>
+        <v>-0.9462380797541222</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.760387008964085</v>
+        <v>-4.756901147067975</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.745165350204806</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.86032608670633</v>
+        <v>-26.85916250307201</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8395159488562358</v>
+        <v>-0.8584217384105959</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.67836902976472</v>
+        <v>-4.681678887413621</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.345409846330021</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.64490901970198</v>
+        <v>-27.63771484609731</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7318013495643657</v>
+        <v>-0.7466248183848518</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.697597493772297</v>
+        <v>-4.698521516070143</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-8.001614777404228</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.49832916938378</v>
+        <v>-28.49515864843059</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5814106093311949</v>
+        <v>-0.5960629629113391</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.923225160680421</v>
+        <v>-4.931306689031432</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.703255826739133</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.18142120882914</v>
+        <v>-29.17283122376397</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3085893591367401</v>
+        <v>-0.3283213908516088</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.159750423894899</v>
+        <v>-5.174177883159166</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.441630063799699</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.60383140213059</v>
+        <v>-29.59453495557315</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1176883080043121</v>
+        <v>-0.1322282144265172</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.481227070428892</v>
+        <v>-5.500191528065655</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.189804961755309</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.19930021600366</v>
+        <v>-30.19006977103893</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3133949834790465</v>
+        <v>0.2928220425830684</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.766857518614664</v>
+        <v>-5.792451469562963</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.942628668899012</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.74166708179174</v>
+        <v>-30.73532359538192</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3356057416754411</v>
+        <v>0.3190760094584017</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.040788573367909</v>
+        <v>-6.061840636936845</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.694572217189651</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.08970814713712</v>
+        <v>-31.07971746160458</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6196765966706673</v>
+        <v>0.6032837566459015</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.33756106820338</v>
+        <v>-6.356452190737139</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.432751385237127</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.29257504257632</v>
+        <v>-31.28082431457169</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8242962010716586</v>
+        <v>0.8062117646709402</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.565799464778437</v>
+        <v>-6.594409932963623</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.171444572251476</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.59060156767315</v>
+        <v>-31.5822755889788</v>
       </c>
       <c r="F25" t="n">
-        <v>1.046081108582388</v>
+        <v>1.028920694479517</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.593275683370499</v>
+        <v>-6.625875581159088</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.91922040359925</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.50046294806784</v>
+        <v>-31.4910271648147</v>
       </c>
       <c r="F26" t="n">
-        <v>1.075361370708342</v>
+        <v>1.057506717630369</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.739544990814861</v>
+        <v>-6.786885244307198</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.68089652461528</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.59023489215814</v>
+        <v>-31.58729171002425</v>
       </c>
       <c r="F27" t="n">
-        <v>1.327482565828279</v>
+        <v>1.309794138983781</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.011109766244519</v>
+        <v>-7.056372191818417</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.484712620434824</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.41275905388225</v>
+        <v>-31.40584110916557</v>
       </c>
       <c r="F28" t="n">
-        <v>1.475326133483787</v>
+        <v>1.460116433120815</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.158909332838224</v>
+        <v>-7.206406034550302</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.343242659978165</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.21687610475244</v>
+        <v>-31.20955481696924</v>
       </c>
       <c r="F29" t="n">
-        <v>1.502597013787438</v>
+        <v>1.486399734037349</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.442447286084956</v>
+        <v>-7.495757016961798</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.267554264336655</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.09104529051522</v>
+        <v>-31.09200598036456</v>
       </c>
       <c r="F30" t="n">
-        <v>1.612873452677572</v>
+        <v>1.598665998722317</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.461568191941461</v>
+        <v>-7.520769176092934</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.278552324789433</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.82083476998769</v>
+        <v>-30.81801381302549</v>
       </c>
       <c r="F31" t="n">
-        <v>1.548832351727853</v>
+        <v>1.53394043681123</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.443772206945891</v>
+        <v>-7.494021419524042</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.374908652228575</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.4160152233934</v>
+        <v>-30.4112728867325</v>
       </c>
       <c r="F32" t="n">
-        <v>1.503521036085285</v>
+        <v>1.491102958643322</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.450093692824812</v>
+        <v>-7.493684078050225</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.559771131903227</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.91392644067841</v>
+        <v>-29.91093925748272</v>
       </c>
       <c r="F33" t="n">
-        <v>1.472402507377372</v>
+        <v>1.456454566977495</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.712555137468273</v>
+        <v>-7.7537645763495</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.836723160256737</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.3172353750886</v>
+        <v>-29.31551688917488</v>
       </c>
       <c r="F34" t="n">
-        <v>1.461847141551702</v>
+        <v>1.449042832567252</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.698347683513019</v>
+        <v>-7.74183051058736</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.185532714567706</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.86316152881358</v>
+        <v>-28.85851452778657</v>
       </c>
       <c r="F35" t="n">
-        <v>1.488174443530039</v>
+        <v>1.469645107504432</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.706130982445147</v>
+        <v>-7.74011935818394</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.602156469913143</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.2367868580313</v>
+        <v>-28.23131117034036</v>
       </c>
       <c r="F36" t="n">
-        <v>1.399258075641457</v>
+        <v>1.385471076276757</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.569517463562943</v>
+        <v>-7.594373174474338</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.076954002541811</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.57683693259049</v>
+        <v>-27.57442420770166</v>
       </c>
       <c r="F37" t="n">
-        <v>1.497673783872455</v>
+        <v>1.480293364460572</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.493757413153229</v>
+        <v>-7.517552209574504</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.583376957250695</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.02552562873939</v>
+        <v>-27.01581117209483</v>
       </c>
       <c r="F38" t="n">
-        <v>1.358845544879538</v>
+        <v>1.336287667195593</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.459079687446201</v>
+        <v>-7.476034763260662</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.119673049891965</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.27043318516498</v>
+        <v>-26.25696397124663</v>
       </c>
       <c r="F39" t="n">
-        <v>1.417371846083377</v>
+        <v>1.400074539788232</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.412032774365879</v>
+        <v>-7.417508462056824</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.672926195460683</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.61283731653058</v>
+        <v>-25.60430599954782</v>
       </c>
       <c r="F40" t="n">
-        <v>1.433935801348485</v>
+        <v>1.410365899243088</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.108195664607716</v>
+        <v>-7.107393867481541</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.221006766343468</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.05475718267224</v>
+        <v>-25.04239777331268</v>
       </c>
       <c r="F41" t="n">
-        <v>1.470574018809146</v>
+        <v>1.452166907955211</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.122808906132924</v>
+        <v>-7.117719449984466</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.766668066867458</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.35358070682616</v>
+        <v>-24.34952283112663</v>
       </c>
       <c r="F42" t="n">
-        <v>1.482796535976433</v>
+        <v>1.462864054980021</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.861325262862845</v>
+        <v>-6.85670515137361</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.29757369485144</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.65504429468822</v>
+        <v>-23.65763546832769</v>
       </c>
       <c r="F43" t="n">
-        <v>1.432635325521886</v>
+        <v>1.411035693183855</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.838219816409805</v>
+        <v>-6.824388815983303</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.8028925474135</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.96953708585061</v>
+        <v>-22.96945397273387</v>
       </c>
       <c r="F44" t="n">
-        <v>1.544779365035181</v>
+        <v>1.523033062491143</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.758137883929738</v>
+        <v>-6.748467428346981</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-11.29154678048368</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.14327536931452</v>
+        <v>-22.13880681703816</v>
       </c>
       <c r="F45" t="n">
-        <v>1.596671283920616</v>
+        <v>1.573824954831522</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.628207637434606</v>
+        <v>-6.612381922206403</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-11.75259523366774</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.62676646084556</v>
+        <v>-21.61894893886536</v>
       </c>
       <c r="F46" t="n">
-        <v>1.593737879800467</v>
+        <v>1.574157407298473</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.503787301678488</v>
+        <v>-6.488636269397919</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-12.18638782159359</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.95910901607905</v>
+        <v>-20.95111060084477</v>
       </c>
       <c r="F47" t="n">
-        <v>1.669297480928637</v>
+        <v>1.648876099245534</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.481860105880375</v>
+        <v>-6.467818878158595</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-12.602162368848</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.32216920145737</v>
+        <v>-20.31732419565225</v>
       </c>
       <c r="F48" t="n">
-        <v>1.707241063222764</v>
+        <v>1.689185960863248</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.467608650863317</v>
+        <v>-6.458779104461669</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-12.98401028446822</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.56759499261085</v>
+        <v>-19.55732318918346</v>
       </c>
       <c r="F49" t="n">
-        <v>1.858120704142627</v>
+        <v>1.837552652253515</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.223808545430869</v>
+        <v>-6.216235473794018</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-13.33866210924713</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.18222880434001</v>
+        <v>-19.17307658348515</v>
       </c>
       <c r="F50" t="n">
-        <v>1.871399246793168</v>
+        <v>1.845805295844868</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.223246309641175</v>
+        <v>-6.220870252303854</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-13.66904258965405</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.59588043277717</v>
+        <v>-18.58941716569911</v>
       </c>
       <c r="F51" t="n">
-        <v>1.832355637953985</v>
+        <v>1.807015915362765</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.26352194821082</v>
+        <v>-6.263952180815108</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-13.95458782697645</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.08554633998112</v>
+        <v>-18.08728193741887</v>
       </c>
       <c r="F52" t="n">
-        <v>1.846162193346153</v>
+        <v>1.81913087437898</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.284906464246705</v>
+        <v>-6.280633472245023</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-14.20672120596741</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.69045102804512</v>
+        <v>-17.69281241836184</v>
       </c>
       <c r="F53" t="n">
-        <v>1.938530200082777</v>
+        <v>1.90846280785125</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.196904340642237</v>
+        <v>-6.195100297108345</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-14.42195172325457</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.06893603008856</v>
+        <v>-17.07265656431428</v>
       </c>
       <c r="F54" t="n">
-        <v>1.997222727520091</v>
+        <v>1.967888686318601</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.186256083686096</v>
+        <v>-6.188177463384793</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-14.58199303652163</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.83046983114792</v>
+        <v>-16.84319102701563</v>
       </c>
       <c r="F55" t="n">
-        <v>1.964857502061114</v>
+        <v>1.941942726875883</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.421471093060241</v>
+        <v>-6.423289803614733</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-14.70255550804456</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.2742035188372</v>
+        <v>-16.27882363032643</v>
       </c>
       <c r="F56" t="n">
-        <v>1.988021616596557</v>
+        <v>1.961146745849125</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.300184610705815</v>
+        <v>-6.30600741788431</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-14.77775598626973</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.17731806975554</v>
+        <v>-16.1836786676894</v>
       </c>
       <c r="F57" t="n">
-        <v>2.029636843047737</v>
+        <v>2.003905999907163</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.468420226003225</v>
+        <v>-6.481239202008276</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-14.79991200398347</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.93308284271194</v>
+        <v>-15.94859566150066</v>
       </c>
       <c r="F58" t="n">
-        <v>1.90058661778865</v>
+        <v>1.878077630173373</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.621490141999465</v>
+        <v>-6.631571274159044</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-14.78892222995462</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.66644129719727</v>
+        <v>-15.68450128856365</v>
       </c>
       <c r="F59" t="n">
-        <v>1.965229066582999</v>
+        <v>1.942504962665579</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.407566757530735</v>
+        <v>-6.414841599748704</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-14.73766784990815</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.41668638140092</v>
+        <v>-15.44154698131918</v>
       </c>
       <c r="F60" t="n">
-        <v>2.036144111187601</v>
+        <v>2.012290646683923</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.450599795973321</v>
+        <v>-6.45663771945396</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-14.65036899833326</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.26007193542616</v>
+        <v>-15.28058131923287</v>
       </c>
       <c r="F61" t="n">
-        <v>1.974122170073918</v>
+        <v>1.95178918670585</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.29450358472646</v>
+        <v>-6.299803268170195</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-14.54456921630424</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.20996450404715</v>
+        <v>-15.23738694356368</v>
       </c>
       <c r="F62" t="n">
-        <v>1.98551355607383</v>
+        <v>1.959675154782184</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.381420348806474</v>
+        <v>-6.386001348240773</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-14.40948649927141</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.13306531503745</v>
+        <v>-15.17051999664488</v>
       </c>
       <c r="F63" t="n">
-        <v>1.957924890323828</v>
+        <v>1.935342567605548</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.43811327243522</v>
+        <v>-6.441286237891847</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-14.2580674146058</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.17648947402939</v>
+        <v>-15.21069296607032</v>
       </c>
       <c r="F64" t="n">
-        <v>1.804967421485527</v>
+        <v>1.780243713759538</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.429909518912536</v>
+        <v>-6.435336316534812</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.09995027966744</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.19547837670048</v>
+        <v>-15.2377536190787</v>
       </c>
       <c r="F65" t="n">
-        <v>1.805749662584234</v>
+        <v>1.782834887399003</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.530295496910901</v>
+        <v>-6.539305936566625</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-13.91750587050502</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.19443212923096</v>
+        <v>-15.23532378266584</v>
       </c>
       <c r="F66" t="n">
-        <v>1.873433073649804</v>
+        <v>1.85667355811002</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.463697445369785</v>
+        <v>-6.475900406509605</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-13.72456550145478</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.05898219398309</v>
+        <v>-15.10565754254152</v>
       </c>
       <c r="F67" t="n">
-        <v>1.689973090968821</v>
+        <v>1.67539407249168</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.247192665275324</v>
+        <v>-6.257845811238331</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-13.51873793847796</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.17062266578909</v>
+        <v>-15.21824159267284</v>
       </c>
       <c r="F68" t="n">
-        <v>1.653662436968244</v>
+        <v>1.634614866214743</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.37393039028636</v>
+        <v>-6.384915988716318</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.27997415414732</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.07616705312029</v>
+        <v>-15.1229352928092</v>
       </c>
       <c r="F69" t="n">
-        <v>1.636560690947775</v>
+        <v>1.61519084193249</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.181103070448367</v>
+        <v>-6.206736133451603</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-13.02047557589888</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.11587556689337</v>
+        <v>-15.16983553568351</v>
       </c>
       <c r="F70" t="n">
-        <v>1.531828385844723</v>
+        <v>1.517938717335818</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.148791624064927</v>
+        <v>-6.17228819106732</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.73035142044809</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.12891454820744</v>
+        <v>-15.18583725515893</v>
       </c>
       <c r="F71" t="n">
-        <v>1.427355198105617</v>
+        <v>1.411558816918615</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.140353198212631</v>
+        <v>-6.168064089134305</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.39572351380406</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.24309241457737</v>
+        <v>-15.30178494201468</v>
       </c>
       <c r="F72" t="n">
-        <v>1.347454158879626</v>
+        <v>1.329257275320969</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.997599086705582</v>
+        <v>-6.029221183120788</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.03043625053106</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.35239594110099</v>
+        <v>-15.40992977391084</v>
       </c>
       <c r="F73" t="n">
-        <v>1.274607956562594</v>
+        <v>1.260024049078586</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.139918076601476</v>
+        <v>-6.172786869767745</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.62537706215822</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.48544537397721</v>
+        <v>-15.53720040067037</v>
       </c>
       <c r="F74" t="n">
-        <v>1.151835216120626</v>
+        <v>1.132948982593733</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.043990872865738</v>
+        <v>-6.077431679835436</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.18169588165708</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.72314888784661</v>
+        <v>-15.77663951197753</v>
       </c>
       <c r="F75" t="n">
-        <v>1.083878020670508</v>
+        <v>1.071327940043137</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.076771663908403</v>
+        <v>-6.110466699235181</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.71579133953581</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.74292980963015</v>
+        <v>-15.79780891171127</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8944241155706866</v>
+        <v>0.8762223430051622</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.185923631219146</v>
+        <v>-6.221999612890111</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.22416928355605</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.81385463224849</v>
+        <v>-15.86544343270817</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7371985437375688</v>
+        <v>0.7191629974055196</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.108471984433479</v>
+        <v>-6.148224499268364</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.721267153337619</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.96932016160951</v>
+        <v>-16.0201853890529</v>
       </c>
       <c r="F78" t="n">
-        <v>0.752418022114275</v>
+        <v>0.7347393732835106</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.079587731863746</v>
+        <v>-6.117443312034268</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.22210046872708</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.08098018944299</v>
+        <v>-16.13662686560221</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4739597470022672</v>
+        <v>0.4532645809346162</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.093976079073077</v>
+        <v>-6.131983218456473</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.722537759186469</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.57506322341341</v>
+        <v>-16.62559599838984</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4626710301465606</v>
+        <v>0.4412278460282716</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.030810110352535</v>
+        <v>-6.072415558789982</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.240772636508062</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.07554596737263</v>
+        <v>-17.11901412742637</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2866423379032879</v>
+        <v>0.2652724888880027</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.112632529277223</v>
+        <v>-6.160251456160975</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.784452664540536</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.50346607141309</v>
+        <v>-17.54903161541274</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.02706567671917664</v>
+        <v>-0.04835730162459125</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.157508723308636</v>
+        <v>-6.208232169552879</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.347581195423992</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.00912627364437</v>
+        <v>-18.04928946505608</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.03111866341184914</v>
+        <v>-0.05124181567607106</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.183112452270669</v>
+        <v>-6.236260845920902</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.948170461672452</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.78667392575852</v>
+        <v>-18.8283038192303</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1241564640892406</v>
+        <v>-0.1465823385877795</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.180179048150521</v>
+        <v>-6.239541369528602</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.588930678008772</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.47836083927592</v>
+        <v>-19.52306102906012</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2864177129952808</v>
+        <v>-0.3054555057350476</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.269388756451118</v>
+        <v>-6.330814238727037</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.26767176442913</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.14271820440726</v>
+        <v>-20.18060800762585</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4273775589821726</v>
+        <v>-0.4522919379759712</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.507185161450994</v>
+        <v>-6.570356019178402</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.004815197650321</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.89480879776538</v>
+        <v>-20.93347106406895</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5233145407316446</v>
+        <v>-0.5504094167880873</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.834699731465626</v>
+        <v>-6.89817859662565</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.802266931668711</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.73067741279496</v>
+        <v>-21.77418468490364</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6398049073496271</v>
+        <v>-0.6665722199459865</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.087573833643068</v>
+        <v>-7.155203465633103</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.666765418154494</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.72861171645591</v>
+        <v>-22.7710825191088</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8617169290388966</v>
+        <v>-0.8862255204627412</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.146036577757637</v>
+        <v>-7.216448054654946</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.614637954909571</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.81326722392219</v>
+        <v>-23.851553036697</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.123674805975067</v>
+        <v>-1.145822007082191</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.522925228121244</v>
+        <v>-7.588398808082968</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.640322788005191</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.04728189117273</v>
+        <v>-25.08156360732353</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.072442903016665</v>
+        <v>-1.088415288450876</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.883157032089271</v>
+        <v>-7.952800934908474</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.748828837101715</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.31014658794493</v>
+        <v>-26.34911686168111</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.298207462117063</v>
+        <v>-1.311671787028547</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.184319855091232</v>
+        <v>-8.247578714942245</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.943591028584609</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.59320043857405</v>
+        <v>-27.62917375110081</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.564951676775943</v>
+        <v>-1.58039116046166</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.505547162275011</v>
+        <v>-8.565593944614461</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.205959494779167</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.0940277665796</v>
+        <v>-29.1332400461557</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.827858021044294</v>
+        <v>-1.837865818100869</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.835310675448424</v>
+        <v>-8.897938853413605</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.534556687057149</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.71181236135893</v>
+        <v>-30.75467917356804</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.094822241012185</v>
+        <v>-2.10660474756145</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.139837135174822</v>
+        <v>-9.194686903214741</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.917265866753517</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.55218610527859</v>
+        <v>-32.59863655952115</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.122953586524413</v>
+        <v>-2.128062598700339</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.502039208910217</v>
+        <v>-9.557607660959572</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.323908509108342</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.27389876353136</v>
+        <v>-34.31943741799324</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.478198603488187</v>
+        <v>-2.483635179124197</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.887400508174187</v>
+        <v>-9.934036744677689</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.746934696780799</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.26509836929534</v>
+        <v>-36.3122650630439</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.869861832603611</v>
+        <v>-2.876002425228456</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.35271173673282</v>
+        <v>-10.39650746024664</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.155799662988226</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.3147900532151</v>
+        <v>-38.36003536726496</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.137911412095957</v>
+        <v>-3.147679647816053</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.70797630972406</v>
+        <v>-10.74727903592719</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.527729872504356</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.51815300097573</v>
+        <v>-40.56015934797626</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.500656165593578</v>
+        <v>-3.508239015244163</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.87430521234337</v>
+        <v>-10.92016409675503</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.834897766704916</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.42854221223648</v>
+        <v>-42.47419575835973</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.946856266309438</v>
+        <v>-3.954356002843285</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.15017720282278</v>
+        <v>-11.18837501347399</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.072229727141895</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.66882693985605</v>
+        <v>-44.72525585711398</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.17543689336518</v>
+        <v>-4.183679758942798</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.28243461658657</v>
+        <v>-11.32407428807208</v>
       </c>
     </row>
   </sheetData>
